--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1506.018794620216</v>
+        <v>1740.841819882092</v>
       </c>
       <c r="AB2" t="n">
-        <v>2060.601355659438</v>
+        <v>2381.896578483462</v>
       </c>
       <c r="AC2" t="n">
-        <v>1863.940454347467</v>
+        <v>2154.571712045844</v>
       </c>
       <c r="AD2" t="n">
-        <v>1506018.794620216</v>
+        <v>1740841.819882092</v>
       </c>
       <c r="AE2" t="n">
-        <v>2060601.355659438</v>
+        <v>2381896.578483462</v>
       </c>
       <c r="AF2" t="n">
         <v>3.314341865561681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.35677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1863940.454347468</v>
+        <v>2154571.712045844</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>771.0249584401026</v>
+        <v>917.7854576876235</v>
       </c>
       <c r="AB3" t="n">
-        <v>1054.950363358241</v>
+        <v>1255.754553044971</v>
       </c>
       <c r="AC3" t="n">
-        <v>954.2673813114645</v>
+        <v>1135.907100964942</v>
       </c>
       <c r="AD3" t="n">
-        <v>771024.9584401026</v>
+        <v>917785.4576876236</v>
       </c>
       <c r="AE3" t="n">
-        <v>1054950.363358242</v>
+        <v>1255754.553044971</v>
       </c>
       <c r="AF3" t="n">
         <v>5.200295925373221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.18229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>954267.3813114646</v>
+        <v>1135907.100964942</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.2728231002039</v>
+        <v>764.1764702398146</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.2623498895696</v>
+        <v>1045.579959668632</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.3509957948819</v>
+        <v>945.7912757985468</v>
       </c>
       <c r="AD4" t="n">
-        <v>627272.8231002039</v>
+        <v>764176.4702398146</v>
       </c>
       <c r="AE4" t="n">
-        <v>858262.3498895696</v>
+        <v>1045579.959668632</v>
       </c>
       <c r="AF4" t="n">
         <v>5.929557210165488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.47135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>776350.995794882</v>
+        <v>945791.2757985468</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>578.3799744237641</v>
+        <v>705.5292657118074</v>
       </c>
       <c r="AB5" t="n">
-        <v>791.3649973302148</v>
+        <v>965.3362671013535</v>
       </c>
       <c r="AC5" t="n">
-        <v>715.838232672768</v>
+        <v>873.2059286271597</v>
       </c>
       <c r="AD5" t="n">
-        <v>578379.9744237642</v>
+        <v>705529.2657118074</v>
       </c>
       <c r="AE5" t="n">
-        <v>791364.9973302148</v>
+        <v>965336.2671013535</v>
       </c>
       <c r="AF5" t="n">
         <v>6.218609864864967e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.24088541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>715838.2326727679</v>
+        <v>873205.9286271597</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>533.9039195285235</v>
+        <v>651.2988549649992</v>
       </c>
       <c r="AB6" t="n">
-        <v>730.5108968774858</v>
+        <v>891.1358266407007</v>
       </c>
       <c r="AC6" t="n">
-        <v>660.7919621579807</v>
+        <v>806.0870740630994</v>
       </c>
       <c r="AD6" t="n">
-        <v>533903.9195285235</v>
+        <v>651298.8549649992</v>
       </c>
       <c r="AE6" t="n">
-        <v>730510.8968774858</v>
+        <v>891135.8266407007</v>
       </c>
       <c r="AF6" t="n">
         <v>6.483313630386261e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.20572916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>660791.9621579808</v>
+        <v>806087.0740630995</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>535.1191652934272</v>
+        <v>652.514100729903</v>
       </c>
       <c r="AB7" t="n">
-        <v>732.1736497458862</v>
+        <v>892.7985795091014</v>
       </c>
       <c r="AC7" t="n">
-        <v>662.2960242263097</v>
+        <v>807.5911361314281</v>
       </c>
       <c r="AD7" t="n">
-        <v>535119.1652934272</v>
+        <v>652514.100729903</v>
       </c>
       <c r="AE7" t="n">
-        <v>732173.6497458862</v>
+        <v>892798.5795091013</v>
       </c>
       <c r="AF7" t="n">
         <v>6.482831474164909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.21223958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>662296.0242263096</v>
+        <v>807591.1361314282</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1085.317277870771</v>
+        <v>1288.540479185479</v>
       </c>
       <c r="AB2" t="n">
-        <v>1484.97898040183</v>
+        <v>1763.037930015498</v>
       </c>
       <c r="AC2" t="n">
-        <v>1343.254670693367</v>
+        <v>1594.776064414094</v>
       </c>
       <c r="AD2" t="n">
-        <v>1085317.277870771</v>
+        <v>1288540.479185479</v>
       </c>
       <c r="AE2" t="n">
-        <v>1484978.98040183</v>
+        <v>1763037.930015498</v>
       </c>
       <c r="AF2" t="n">
         <v>4.318668951327802e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1343254.670693367</v>
+        <v>1594776.064414094</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>631.7823887408118</v>
+        <v>776.9222951548719</v>
       </c>
       <c r="AB3" t="n">
-        <v>864.4325365470445</v>
+        <v>1063.019359623523</v>
       </c>
       <c r="AC3" t="n">
-        <v>781.9323084976788</v>
+        <v>961.5662838980948</v>
       </c>
       <c r="AD3" t="n">
-        <v>631782.3887408118</v>
+        <v>776922.2951548719</v>
       </c>
       <c r="AE3" t="n">
-        <v>864432.5365470445</v>
+        <v>1063019.359623523</v>
       </c>
       <c r="AF3" t="n">
         <v>6.17755363859918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.79947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>781932.3084976788</v>
+        <v>961566.2838980948</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>519.1715311808191</v>
+        <v>644.9845047134439</v>
       </c>
       <c r="AB4" t="n">
-        <v>710.3533931930539</v>
+        <v>882.4962540570502</v>
       </c>
       <c r="AC4" t="n">
-        <v>642.558262333957</v>
+        <v>798.2720501611162</v>
       </c>
       <c r="AD4" t="n">
-        <v>519171.5311808191</v>
+        <v>644984.5047134439</v>
       </c>
       <c r="AE4" t="n">
-        <v>710353.3931930539</v>
+        <v>882496.2540570502</v>
       </c>
       <c r="AF4" t="n">
         <v>6.931975407521579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.77213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>642558.262333957</v>
+        <v>798272.0501611162</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>507.2393531561645</v>
+        <v>632.950841462304</v>
       </c>
       <c r="AB5" t="n">
-        <v>694.0272608091792</v>
+        <v>866.0312651090861</v>
       </c>
       <c r="AC5" t="n">
-        <v>627.7902731109288</v>
+        <v>783.3784566495888</v>
       </c>
       <c r="AD5" t="n">
-        <v>507239.3531561645</v>
+        <v>632950.841462304</v>
       </c>
       <c r="AE5" t="n">
-        <v>694027.2608091792</v>
+        <v>866031.2651090862</v>
       </c>
       <c r="AF5" t="n">
         <v>7.030102994248548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.42708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>627790.2731109287</v>
+        <v>783378.4566495888</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.8949566864005</v>
+        <v>625.7702158160865</v>
       </c>
       <c r="AB2" t="n">
-        <v>677.1371129629113</v>
+        <v>856.2064163130855</v>
       </c>
       <c r="AC2" t="n">
-        <v>612.5120972696373</v>
+        <v>774.4912776334164</v>
       </c>
       <c r="AD2" t="n">
-        <v>494894.9566864005</v>
+        <v>625770.2158160865</v>
       </c>
       <c r="AE2" t="n">
-        <v>677137.1129629113</v>
+        <v>856206.4163130855</v>
       </c>
       <c r="AF2" t="n">
         <v>8.794836186976044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.25260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>612512.0972696373</v>
+        <v>774491.2776334165</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>472.0431992667761</v>
+        <v>602.9857782041665</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.8703303129955</v>
+        <v>825.0317435940113</v>
       </c>
       <c r="AC3" t="n">
-        <v>584.2293724726243</v>
+        <v>746.2918719247228</v>
       </c>
       <c r="AD3" t="n">
-        <v>472043.1992667761</v>
+        <v>602985.7782041666</v>
       </c>
       <c r="AE3" t="n">
-        <v>645870.3303129955</v>
+        <v>825031.7435940113</v>
       </c>
       <c r="AF3" t="n">
         <v>9.037470132101729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.5234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>584229.3724726243</v>
+        <v>746291.8719247228</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>667.485174470064</v>
+        <v>819.104811299241</v>
       </c>
       <c r="AB2" t="n">
-        <v>913.2826630775488</v>
+        <v>1120.735339173521</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.1202475136952</v>
+        <v>1013.773931364727</v>
       </c>
       <c r="AD2" t="n">
-        <v>667485.174470064</v>
+        <v>819104.8112992409</v>
       </c>
       <c r="AE2" t="n">
-        <v>913282.6630775488</v>
+        <v>1120735.339173521</v>
       </c>
       <c r="AF2" t="n">
         <v>6.679227173758766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.08072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>826120.2475136952</v>
+        <v>1013773.931364727</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>479.2572818323677</v>
+        <v>602.4292082761079</v>
       </c>
       <c r="AB3" t="n">
-        <v>655.7409563420988</v>
+        <v>824.2702200643092</v>
       </c>
       <c r="AC3" t="n">
-        <v>593.1579598070206</v>
+        <v>745.6030271318904</v>
       </c>
       <c r="AD3" t="n">
-        <v>479257.2818323676</v>
+        <v>602429.2082761079</v>
       </c>
       <c r="AE3" t="n">
-        <v>655740.9563420988</v>
+        <v>824270.2200643092</v>
       </c>
       <c r="AF3" t="n">
         <v>8.18642150497691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.35807291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>593157.9598070206</v>
+        <v>745603.0271318904</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.7449832499881</v>
+        <v>603.9169096937285</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.7764950544415</v>
+        <v>826.3057587766519</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.9992295615539</v>
+        <v>747.4442968864236</v>
       </c>
       <c r="AD4" t="n">
-        <v>480744.9832499881</v>
+        <v>603916.9096937284</v>
       </c>
       <c r="AE4" t="n">
-        <v>657776.4950544415</v>
+        <v>826305.7587766519</v>
       </c>
       <c r="AF4" t="n">
         <v>8.18482726515121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.36458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>594999.2295615539</v>
+        <v>747444.2968864236</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.6441208151147</v>
+        <v>610.0942056838908</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.6384906213111</v>
+        <v>834.757807673457</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.8743960778311</v>
+        <v>755.0896940990432</v>
       </c>
       <c r="AD2" t="n">
-        <v>480644.1208151147</v>
+        <v>610094.2056838907</v>
       </c>
       <c r="AE2" t="n">
-        <v>657638.4906213111</v>
+        <v>834757.8076734571</v>
       </c>
       <c r="AF2" t="n">
         <v>9.747728354033898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>594874.396077831</v>
+        <v>755089.6940990431</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1179.255494465553</v>
+        <v>1383.142997140915</v>
       </c>
       <c r="AB2" t="n">
-        <v>1613.50939260844</v>
+        <v>1892.477268650661</v>
       </c>
       <c r="AC2" t="n">
-        <v>1459.518320752545</v>
+        <v>1711.86189423917</v>
       </c>
       <c r="AD2" t="n">
-        <v>1179255.494465553</v>
+        <v>1383142.997140915</v>
       </c>
       <c r="AE2" t="n">
-        <v>1613509.39260844</v>
+        <v>1892477.268650661</v>
       </c>
       <c r="AF2" t="n">
         <v>4.037756616243503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1459518.320752545</v>
+        <v>1711861.89423917</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>666.7499290148622</v>
+        <v>802.6076109907326</v>
       </c>
       <c r="AB3" t="n">
-        <v>912.2766678090017</v>
+        <v>1098.163141906308</v>
       </c>
       <c r="AC3" t="n">
-        <v>825.2102630216547</v>
+        <v>993.3559929244188</v>
       </c>
       <c r="AD3" t="n">
-        <v>666749.9290148623</v>
+        <v>802607.6109907326</v>
       </c>
       <c r="AE3" t="n">
-        <v>912276.6678090016</v>
+        <v>1098163.141906308</v>
       </c>
       <c r="AF3" t="n">
         <v>5.916345662867569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.32682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>825210.2630216547</v>
+        <v>993355.9929244189</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>551.9611563339996</v>
+        <v>678.0757441922623</v>
       </c>
       <c r="AB4" t="n">
-        <v>755.2176049038027</v>
+        <v>927.773147794422</v>
       </c>
       <c r="AC4" t="n">
-        <v>683.1406966463486</v>
+        <v>839.2277807067128</v>
       </c>
       <c r="AD4" t="n">
-        <v>551961.1563339996</v>
+        <v>678075.7441922623</v>
       </c>
       <c r="AE4" t="n">
-        <v>755217.6049038026</v>
+        <v>927773.147794422</v>
       </c>
       <c r="AF4" t="n">
         <v>6.645334999677565e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.22135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>683140.6966463486</v>
+        <v>839227.7807067127</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>514.3154278861169</v>
+        <v>630.7552524643337</v>
       </c>
       <c r="AB5" t="n">
-        <v>703.7090584290847</v>
+        <v>863.0271633795126</v>
       </c>
       <c r="AC5" t="n">
-        <v>636.5480535544788</v>
+        <v>780.6610621728025</v>
       </c>
       <c r="AD5" t="n">
-        <v>514315.4278861169</v>
+        <v>630755.2524643337</v>
       </c>
       <c r="AE5" t="n">
-        <v>703709.0584290847</v>
+        <v>863027.1633795126</v>
       </c>
       <c r="AF5" t="n">
         <v>6.87082746402981e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>636548.0535544788</v>
+        <v>780661.0621728025</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>515.5794824011455</v>
+        <v>632.0193069793621</v>
       </c>
       <c r="AB6" t="n">
-        <v>705.4385935826963</v>
+        <v>864.7566985331241</v>
       </c>
       <c r="AC6" t="n">
-        <v>638.1125243004474</v>
+        <v>782.2255329187711</v>
       </c>
       <c r="AD6" t="n">
-        <v>515579.4824011455</v>
+        <v>632019.3069793622</v>
       </c>
       <c r="AE6" t="n">
-        <v>705438.5935826963</v>
+        <v>864756.6985331241</v>
       </c>
       <c r="AF6" t="n">
         <v>6.87082746402981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>638112.5243004474</v>
+        <v>782225.5329187711</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.6999080497932</v>
+        <v>624.5426834967208</v>
       </c>
       <c r="AB2" t="n">
-        <v>665.9242858782758</v>
+        <v>854.5268524388255</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.3694066646576</v>
+        <v>772.972008978033</v>
       </c>
       <c r="AD2" t="n">
-        <v>486699.9080497932</v>
+        <v>624542.6834967207</v>
       </c>
       <c r="AE2" t="n">
-        <v>665924.2858782758</v>
+        <v>854526.8524388254</v>
       </c>
       <c r="AF2" t="n">
         <v>1.016008896434985e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.5703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>602369.4066646576</v>
+        <v>772972.0089780331</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>858.8329084636424</v>
+        <v>1031.323411341832</v>
       </c>
       <c r="AB2" t="n">
-        <v>1175.093074393804</v>
+        <v>1411.102190175661</v>
       </c>
       <c r="AC2" t="n">
-        <v>1062.943840627147</v>
+        <v>1276.428577639658</v>
       </c>
       <c r="AD2" t="n">
-        <v>858832.9084636425</v>
+        <v>1031323.411341832</v>
       </c>
       <c r="AE2" t="n">
-        <v>1175093.074393804</v>
+        <v>1411102.190175661</v>
       </c>
       <c r="AF2" t="n">
         <v>5.313500955656019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.14322916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1062943.840627147</v>
+        <v>1276428.577639658</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.8340732193759</v>
+        <v>667.4165225983811</v>
       </c>
       <c r="AB3" t="n">
-        <v>742.7295271278857</v>
+        <v>913.1887305580057</v>
       </c>
       <c r="AC3" t="n">
-        <v>671.8444634862379</v>
+        <v>826.0352797819818</v>
       </c>
       <c r="AD3" t="n">
-        <v>542834.0732193759</v>
+        <v>667416.5225983812</v>
       </c>
       <c r="AE3" t="n">
-        <v>742729.5271278857</v>
+        <v>913188.7305580056</v>
       </c>
       <c r="AF3" t="n">
         <v>7.164406308792228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.06770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>671844.4634862379</v>
+        <v>826035.2797819818</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.1973923025204</v>
+        <v>613.8129960704492</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.341454014086</v>
+        <v>839.8460207417996</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.4604450696118</v>
+        <v>759.6922952534948</v>
       </c>
       <c r="AD4" t="n">
-        <v>489197.3923025204</v>
+        <v>613812.9960704492</v>
       </c>
       <c r="AE4" t="n">
-        <v>669341.454014086</v>
+        <v>839846.0207417996</v>
       </c>
       <c r="AF4" t="n">
         <v>7.529252366314196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.8046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>605460.4450696118</v>
+        <v>759692.2952534948</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1008.057050912489</v>
+        <v>1191.360449339953</v>
       </c>
       <c r="AB2" t="n">
-        <v>1379.268129396854</v>
+        <v>1630.071925900513</v>
       </c>
       <c r="AC2" t="n">
-        <v>1247.632714942195</v>
+        <v>1474.500149112884</v>
       </c>
       <c r="AD2" t="n">
-        <v>1008057.050912489</v>
+        <v>1191360.449339953</v>
       </c>
       <c r="AE2" t="n">
-        <v>1379268.129396854</v>
+        <v>1630071.925900513</v>
       </c>
       <c r="AF2" t="n">
         <v>4.62100781568966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1247632.714942195</v>
+        <v>1474500.149112884</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>603.724176118254</v>
+        <v>738.737956959788</v>
       </c>
       <c r="AB3" t="n">
-        <v>826.0420521958824</v>
+        <v>1010.773863530899</v>
       </c>
       <c r="AC3" t="n">
-        <v>747.2057580916086</v>
+        <v>914.3070246255368</v>
       </c>
       <c r="AD3" t="n">
-        <v>603724.1761182541</v>
+        <v>738737.956959788</v>
       </c>
       <c r="AE3" t="n">
-        <v>826042.0521958824</v>
+        <v>1010773.863530899</v>
       </c>
       <c r="AF3" t="n">
         <v>6.489120888589745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>747205.7580916085</v>
+        <v>914307.0246255368</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>502.1334961773802</v>
+        <v>627.5635063931886</v>
       </c>
       <c r="AB4" t="n">
-        <v>687.0412020362942</v>
+        <v>858.6600755950734</v>
       </c>
       <c r="AC4" t="n">
-        <v>621.4709539823325</v>
+        <v>776.7107631172638</v>
       </c>
       <c r="AD4" t="n">
-        <v>502133.4961773802</v>
+        <v>627563.5063931886</v>
       </c>
       <c r="AE4" t="n">
-        <v>687041.2020362942</v>
+        <v>858660.0755950734</v>
       </c>
       <c r="AF4" t="n">
         <v>7.185466805038879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>621470.9539823325</v>
+        <v>776710.7631172638</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>501.4434797803705</v>
+        <v>626.873489996179</v>
       </c>
       <c r="AB5" t="n">
-        <v>686.0970911605305</v>
+        <v>857.7159647193097</v>
       </c>
       <c r="AC5" t="n">
-        <v>620.616947723484</v>
+        <v>775.8567568584152</v>
       </c>
       <c r="AD5" t="n">
-        <v>501443.4797803705</v>
+        <v>626873.489996179</v>
       </c>
       <c r="AE5" t="n">
-        <v>686097.0911605305</v>
+        <v>857715.9647193097</v>
       </c>
       <c r="AF5" t="n">
         <v>7.18654976913911e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.52473958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>620616.947723484</v>
+        <v>775856.7568584152</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1390.576416520132</v>
+        <v>1615.020135759384</v>
       </c>
       <c r="AB2" t="n">
-        <v>1902.648000984624</v>
+        <v>2209.74179940583</v>
       </c>
       <c r="AC2" t="n">
-        <v>1721.061946153891</v>
+        <v>1998.847143462631</v>
       </c>
       <c r="AD2" t="n">
-        <v>1390576.416520132</v>
+        <v>1615020.135759384</v>
       </c>
       <c r="AE2" t="n">
-        <v>1902648.000984624</v>
+        <v>2209741.79940583</v>
       </c>
       <c r="AF2" t="n">
         <v>3.53425437415079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.33854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1721061.946153891</v>
+        <v>1998847.143462631</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>732.7824795651312</v>
+        <v>879.2250042166993</v>
       </c>
       <c r="AB3" t="n">
-        <v>1002.62531662241</v>
+        <v>1202.994439438907</v>
       </c>
       <c r="AC3" t="n">
-        <v>906.9361635974366</v>
+        <v>1088.182338552158</v>
       </c>
       <c r="AD3" t="n">
-        <v>732782.4795651312</v>
+        <v>879225.0042166993</v>
       </c>
       <c r="AE3" t="n">
-        <v>1002625.31662241</v>
+        <v>1202994.439438907</v>
       </c>
       <c r="AF3" t="n">
         <v>5.418041489732277e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.57682291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>906936.1635974366</v>
+        <v>1088182.338552158</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>604.9085743719234</v>
+        <v>731.7581092622443</v>
       </c>
       <c r="AB4" t="n">
-        <v>827.6625981385159</v>
+        <v>1001.223727981972</v>
       </c>
       <c r="AC4" t="n">
-        <v>748.6716414039275</v>
+        <v>905.6683406097</v>
       </c>
       <c r="AD4" t="n">
-        <v>604908.5743719233</v>
+        <v>731758.1092622443</v>
       </c>
       <c r="AE4" t="n">
-        <v>827662.598138516</v>
+        <v>1001223.727981972</v>
       </c>
       <c r="AF4" t="n">
         <v>6.157133821596819e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.02213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>748671.6414039276</v>
+        <v>905668.3406097</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>541.2455098434289</v>
+        <v>668.1281991226734</v>
       </c>
       <c r="AB5" t="n">
-        <v>740.5559846344451</v>
+        <v>914.1624777754948</v>
       </c>
       <c r="AC5" t="n">
-        <v>669.8783608377851</v>
+        <v>826.9160939316967</v>
       </c>
       <c r="AD5" t="n">
-        <v>541245.5098434289</v>
+        <v>668128.1991226735</v>
       </c>
       <c r="AE5" t="n">
-        <v>740555.984634445</v>
+        <v>914162.4777754948</v>
       </c>
       <c r="AF5" t="n">
         <v>6.497268887409938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>669878.3608377851</v>
+        <v>826916.0939316966</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>527.7826320669072</v>
+        <v>644.8693319804571</v>
       </c>
       <c r="AB6" t="n">
-        <v>722.1354813203588</v>
+        <v>882.3386696427151</v>
       </c>
       <c r="AC6" t="n">
-        <v>653.2158845066566</v>
+        <v>798.1295053821143</v>
       </c>
       <c r="AD6" t="n">
-        <v>527782.6320669072</v>
+        <v>644869.3319804571</v>
       </c>
       <c r="AE6" t="n">
-        <v>722135.4813203588</v>
+        <v>882338.6696427151</v>
       </c>
       <c r="AF6" t="n">
         <v>6.603099624240359e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.26432291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>653215.8845066566</v>
+        <v>798129.5053821143</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.888634827244</v>
+        <v>886.588597998481</v>
       </c>
       <c r="AB2" t="n">
-        <v>991.8246100001813</v>
+        <v>1213.069633309972</v>
       </c>
       <c r="AC2" t="n">
-        <v>897.1662612563464</v>
+        <v>1097.295970060791</v>
       </c>
       <c r="AD2" t="n">
-        <v>724888.634827244</v>
+        <v>886588.597998481</v>
       </c>
       <c r="AE2" t="n">
-        <v>991824.6100001814</v>
+        <v>1213069.633309972</v>
       </c>
       <c r="AF2" t="n">
         <v>6.169893089670635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.37630208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>897166.2612563464</v>
+        <v>1097295.970060791</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.3622338047391</v>
+        <v>611.0173944379327</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.8305091959427</v>
+        <v>836.0209552549508</v>
       </c>
       <c r="AC3" t="n">
-        <v>603.1891413007788</v>
+        <v>756.2322886481977</v>
       </c>
       <c r="AD3" t="n">
-        <v>487362.2338047391</v>
+        <v>611017.3944379326</v>
       </c>
       <c r="AE3" t="n">
-        <v>666830.5091959427</v>
+        <v>836020.9552549508</v>
       </c>
       <c r="AF3" t="n">
         <v>7.92369033968592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>603189.1413007788</v>
+        <v>756232.2886481977</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>486.4168156533878</v>
+        <v>610.0719762865815</v>
       </c>
       <c r="AB4" t="n">
-        <v>665.5369463723586</v>
+        <v>834.7273924313668</v>
       </c>
       <c r="AC4" t="n">
-        <v>602.0190342975508</v>
+        <v>755.0621816449697</v>
       </c>
       <c r="AD4" t="n">
-        <v>486416.8156533878</v>
+        <v>610071.9762865815</v>
       </c>
       <c r="AE4" t="n">
-        <v>665536.9463723586</v>
+        <v>834727.3924313667</v>
       </c>
       <c r="AF4" t="n">
         <v>7.953758941943004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.1171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>602019.0342975508</v>
+        <v>755062.1816449696</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>547.2527958292285</v>
+        <v>688.1311457136648</v>
       </c>
       <c r="AB2" t="n">
-        <v>748.7754183429695</v>
+        <v>941.5313917690111</v>
       </c>
       <c r="AC2" t="n">
-        <v>677.3133433292157</v>
+        <v>851.6729571861839</v>
       </c>
       <c r="AD2" t="n">
-        <v>547252.7958292285</v>
+        <v>688131.1457136647</v>
       </c>
       <c r="AE2" t="n">
-        <v>748775.4183429695</v>
+        <v>941531.391769011</v>
       </c>
       <c r="AF2" t="n">
         <v>7.9764062513906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.4765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>677313.3433292158</v>
+        <v>851672.9571861839</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.7831968095047</v>
+        <v>598.9280107942088</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.3558040648896</v>
+        <v>819.479727207643</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.0958817120572</v>
+        <v>741.2697321899657</v>
       </c>
       <c r="AD3" t="n">
-        <v>476783.1968095046</v>
+        <v>598928.0107942089</v>
       </c>
       <c r="AE3" t="n">
-        <v>652355.8040648897</v>
+        <v>819479.727207643</v>
       </c>
       <c r="AF3" t="n">
         <v>8.735565591941968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>590095.8817120573</v>
+        <v>741269.7321899657</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.3607868903852</v>
+        <v>605.5428455110322</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.4096000612536</v>
+        <v>828.5304358931126</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.3354206870138</v>
+        <v>749.4566539412433</v>
       </c>
       <c r="AD2" t="n">
-        <v>475360.7868903852</v>
+        <v>605542.8455110322</v>
       </c>
       <c r="AE2" t="n">
-        <v>650409.6000612536</v>
+        <v>828530.4358931126</v>
       </c>
       <c r="AF2" t="n">
         <v>9.373158882810303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.21354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>588335.4206870138</v>
+        <v>749456.6539412433</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.6136684181557</v>
+        <v>606.7957270388029</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.1238478407813</v>
+        <v>830.2446836726402</v>
       </c>
       <c r="AC3" t="n">
-        <v>589.8860630644252</v>
+        <v>751.0072963186548</v>
       </c>
       <c r="AD3" t="n">
-        <v>476613.6684181558</v>
+        <v>606795.7270388028</v>
       </c>
       <c r="AE3" t="n">
-        <v>652123.8478407813</v>
+        <v>830244.6836726402</v>
       </c>
       <c r="AF3" t="n">
         <v>9.386088458663364e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.17447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>589886.0630644253</v>
+        <v>751007.2963186548</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>516.0130272954398</v>
+        <v>661.8291547227585</v>
       </c>
       <c r="AB2" t="n">
-        <v>706.0317888337208</v>
+        <v>905.5438473333051</v>
       </c>
       <c r="AC2" t="n">
-        <v>638.6491058292689</v>
+        <v>819.1200134825858</v>
       </c>
       <c r="AD2" t="n">
-        <v>516013.0272954398</v>
+        <v>661829.1547227586</v>
       </c>
       <c r="AE2" t="n">
-        <v>706031.7888337208</v>
+        <v>905543.847333305</v>
       </c>
       <c r="AF2" t="n">
         <v>1.049714840178186e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.14192708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>638649.1058292689</v>
+        <v>819120.0134825858</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>926.476315093472</v>
+        <v>1109.230418326818</v>
       </c>
       <c r="AB2" t="n">
-        <v>1267.645767561222</v>
+        <v>1517.697994147095</v>
       </c>
       <c r="AC2" t="n">
-        <v>1146.663434657187</v>
+        <v>1372.851027688208</v>
       </c>
       <c r="AD2" t="n">
-        <v>926476.3150934719</v>
+        <v>1109230.418326818</v>
       </c>
       <c r="AE2" t="n">
-        <v>1267645.767561222</v>
+        <v>1517697.994147094</v>
       </c>
       <c r="AF2" t="n">
         <v>4.949621976589876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.61458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1146663.434657187</v>
+        <v>1372851.027688208</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>570.1952539105293</v>
+        <v>704.8471811827894</v>
       </c>
       <c r="AB3" t="n">
-        <v>780.1663016396218</v>
+        <v>964.4030089573049</v>
       </c>
       <c r="AC3" t="n">
-        <v>705.708324781417</v>
+        <v>872.3617393305432</v>
       </c>
       <c r="AD3" t="n">
-        <v>570195.2539105293</v>
+        <v>704847.1811827894</v>
       </c>
       <c r="AE3" t="n">
-        <v>780166.3016396218</v>
+        <v>964403.0089573049</v>
       </c>
       <c r="AF3" t="n">
         <v>6.79250709948217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>705708.324781417</v>
+        <v>872361.7393305432</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>495.7879226844292</v>
+        <v>620.819414764472</v>
       </c>
       <c r="AB4" t="n">
-        <v>678.3589084362937</v>
+        <v>849.4325119003388</v>
       </c>
       <c r="AC4" t="n">
-        <v>613.6172862978407</v>
+        <v>768.3638651505879</v>
       </c>
       <c r="AD4" t="n">
-        <v>495787.9226844292</v>
+        <v>620819.4147644719</v>
       </c>
       <c r="AE4" t="n">
-        <v>678358.9084362937</v>
+        <v>849432.5119003388</v>
       </c>
       <c r="AF4" t="n">
         <v>7.337577956071764e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>613617.2862978406</v>
+        <v>768363.8651505879</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.7547259706753</v>
+        <v>621.7862180507179</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.6817313448863</v>
+        <v>850.7553348089315</v>
       </c>
       <c r="AC5" t="n">
-        <v>614.8138608446309</v>
+        <v>769.5604396973781</v>
       </c>
       <c r="AD5" t="n">
-        <v>496754.7259706754</v>
+        <v>621786.218050718</v>
       </c>
       <c r="AE5" t="n">
-        <v>679681.7313448864</v>
+        <v>850755.3348089315</v>
       </c>
       <c r="AF5" t="n">
         <v>7.342032059087818e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>614813.8608446309</v>
+        <v>769560.4396973781</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1281.160751313838</v>
+        <v>1495.258499532471</v>
       </c>
       <c r="AB2" t="n">
-        <v>1752.940660770902</v>
+        <v>2045.87864520967</v>
       </c>
       <c r="AC2" t="n">
-        <v>1585.642464374596</v>
+        <v>1850.622858719571</v>
       </c>
       <c r="AD2" t="n">
-        <v>1281160.751313838</v>
+        <v>1495258.499532471</v>
       </c>
       <c r="AE2" t="n">
-        <v>1752940.660770902</v>
+        <v>2045878.64520967</v>
       </c>
       <c r="AF2" t="n">
         <v>3.776186566410707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.36588541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1585642.464374596</v>
+        <v>1850622.858719571</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>694.9012603116076</v>
+        <v>840.9120267872256</v>
       </c>
       <c r="AB3" t="n">
-        <v>950.7945612382932</v>
+        <v>1150.57293347063</v>
       </c>
       <c r="AC3" t="n">
-        <v>860.0520627622576</v>
+        <v>1040.763867539446</v>
       </c>
       <c r="AD3" t="n">
-        <v>694901.2603116076</v>
+        <v>840912.0267872256</v>
       </c>
       <c r="AE3" t="n">
-        <v>950794.5612382932</v>
+        <v>1150572.93347063</v>
       </c>
       <c r="AF3" t="n">
         <v>5.653966523661967e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>860052.0627622576</v>
+        <v>1040763.867539446</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>574.2706678446724</v>
+        <v>700.8429421531515</v>
       </c>
       <c r="AB4" t="n">
-        <v>785.7424627788901</v>
+        <v>958.9242324623963</v>
       </c>
       <c r="AC4" t="n">
-        <v>710.7523049277449</v>
+        <v>867.4058495747976</v>
       </c>
       <c r="AD4" t="n">
-        <v>574270.6678446725</v>
+        <v>700842.9421531515</v>
       </c>
       <c r="AE4" t="n">
-        <v>785742.46277889</v>
+        <v>958924.2324623963</v>
       </c>
       <c r="AF4" t="n">
         <v>6.385206488260683e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>710752.3049277449</v>
+        <v>867405.8495747976</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>523.7903977432737</v>
+        <v>640.5590234510885</v>
       </c>
       <c r="AB5" t="n">
-        <v>716.6731301938156</v>
+        <v>876.4411153554413</v>
       </c>
       <c r="AC5" t="n">
-        <v>648.2748525051726</v>
+        <v>792.7948053987485</v>
       </c>
       <c r="AD5" t="n">
-        <v>523790.3977432738</v>
+        <v>640559.0234510885</v>
       </c>
       <c r="AE5" t="n">
-        <v>716673.1301938156</v>
+        <v>876441.1153554413</v>
       </c>
       <c r="AF5" t="n">
         <v>6.707183493656746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.4140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>648274.8525051726</v>
+        <v>792794.8053987485</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>521.5714707316446</v>
+        <v>638.3400964394593</v>
       </c>
       <c r="AB6" t="n">
-        <v>713.6370963643536</v>
+        <v>873.4050815259793</v>
       </c>
       <c r="AC6" t="n">
-        <v>645.5285734832944</v>
+        <v>790.0485263768702</v>
       </c>
       <c r="AD6" t="n">
-        <v>521571.4707316446</v>
+        <v>638340.0964394594</v>
       </c>
       <c r="AE6" t="n">
-        <v>713637.0963643537</v>
+        <v>873405.0815259793</v>
       </c>
       <c r="AF6" t="n">
         <v>6.733344125345176e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>645528.5734832943</v>
+        <v>790048.5263768702</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.1880735571539</v>
+        <v>752.7131298743353</v>
       </c>
       <c r="AB2" t="n">
-        <v>782.8929653971317</v>
+        <v>1029.895311653698</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.1747595768065</v>
+        <v>931.6035485766172</v>
       </c>
       <c r="AD2" t="n">
-        <v>572188.0735571539</v>
+        <v>752713.1298743354</v>
       </c>
       <c r="AE2" t="n">
-        <v>782892.9653971316</v>
+        <v>1029895.311653698</v>
       </c>
       <c r="AF2" t="n">
         <v>1.055959343985942e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.62369791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>708174.7595768066</v>
+        <v>931603.5485766171</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>601.0747196206024</v>
+        <v>752.0961145512734</v>
       </c>
       <c r="AB2" t="n">
-        <v>822.4169489300244</v>
+        <v>1029.05108406789</v>
       </c>
       <c r="AC2" t="n">
-        <v>743.9266295935795</v>
+        <v>930.8398928867176</v>
       </c>
       <c r="AD2" t="n">
-        <v>601074.7196206024</v>
+        <v>752096.1145512734</v>
       </c>
       <c r="AE2" t="n">
-        <v>822416.9489300244</v>
+        <v>1029051.08406789</v>
       </c>
       <c r="AF2" t="n">
         <v>7.282933737304587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>743926.6295935794</v>
+        <v>930839.8928867176</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>473.3888117805454</v>
+        <v>596.1492139672343</v>
       </c>
       <c r="AB3" t="n">
-        <v>647.711456718569</v>
+        <v>815.6776547971128</v>
       </c>
       <c r="AC3" t="n">
-        <v>585.894784358087</v>
+        <v>737.8305242340541</v>
       </c>
       <c r="AD3" t="n">
-        <v>473388.8117805455</v>
+        <v>596149.2139672344</v>
       </c>
       <c r="AE3" t="n">
-        <v>647711.456718569</v>
+        <v>815677.6547971128</v>
       </c>
       <c r="AF3" t="n">
         <v>8.447018756117286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.64453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>585894.784358087</v>
+        <v>737830.5242340541</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.9991545190807</v>
+        <v>956.9198867657185</v>
       </c>
       <c r="AB2" t="n">
-        <v>1074.07047493152</v>
+        <v>1309.300005398782</v>
       </c>
       <c r="AC2" t="n">
-        <v>971.5626962714344</v>
+        <v>1184.34225049762</v>
       </c>
       <c r="AD2" t="n">
-        <v>784999.1545190807</v>
+        <v>956919.8867657185</v>
       </c>
       <c r="AE2" t="n">
-        <v>1074070.47493152</v>
+        <v>1309300.005398782</v>
       </c>
       <c r="AF2" t="n">
         <v>5.718923326081783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.72395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>971562.6962714344</v>
+        <v>1184342.25049762</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>507.4113341927207</v>
+        <v>631.6256575313092</v>
       </c>
       <c r="AB3" t="n">
-        <v>694.2625728506631</v>
+        <v>864.2180899917099</v>
       </c>
       <c r="AC3" t="n">
-        <v>628.0031273014358</v>
+        <v>781.7383284206078</v>
       </c>
       <c r="AD3" t="n">
-        <v>507411.3341927207</v>
+        <v>631625.6575313092</v>
       </c>
       <c r="AE3" t="n">
-        <v>694262.5728506631</v>
+        <v>864218.0899917099</v>
       </c>
       <c r="AF3" t="n">
         <v>7.560058186045434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.51432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>628003.1273014358</v>
+        <v>781738.3284206078</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.7930234028228</v>
+        <v>605.9731813226304</v>
       </c>
       <c r="AB4" t="n">
-        <v>659.2104698278182</v>
+        <v>829.1192403356173</v>
       </c>
       <c r="AC4" t="n">
-        <v>596.2963477951556</v>
+        <v>749.9892637141477</v>
       </c>
       <c r="AD4" t="n">
-        <v>481793.0234028228</v>
+        <v>605973.1813226304</v>
       </c>
       <c r="AE4" t="n">
-        <v>659210.4698278182</v>
+        <v>829119.2403356173</v>
       </c>
       <c r="AF4" t="n">
         <v>7.746689716500318e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>596296.3477951556</v>
+        <v>749989.2637141477</v>
       </c>
     </row>
   </sheetData>
